--- a/REGULAR/BUGARIN, MA. ANA.xlsx
+++ b/REGULAR/BUGARIN, MA. ANA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\LCR - LOCAL CIVIL REGISTRY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE958EA-C9D7-45F1-A823-F9F84083E323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="296">
   <si>
     <t>PERIOD</t>
   </si>
@@ -920,12 +919,15 @@
   </si>
   <si>
     <t>12/9,21,22,23,26</t>
+  </si>
+  <si>
+    <t>4/28,5/2/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1799,7 +1801,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1844,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1908,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1968,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2034,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2097,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2195,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2254,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2319,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2362,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2437,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2623,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2689,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2747,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2813,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2869,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,7 +2944,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2987,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3053,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,7 +3109,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3207,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3270,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,25 +3336,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K483" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K483" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3364,13 +3366,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3379,14 +3381,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3690,7 +3692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3700,7 +3702,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3708,34 +3710,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3492" topLeftCell="A463" activePane="bottomLeft"/>
+      <pane ySplit="3495" topLeftCell="A463" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="K476" sqref="K476"/>
+      <selection pane="bottomLeft" activeCell="B481" sqref="B481"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3756,7 +3758,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3774,7 +3776,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3796,7 +3798,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3804,7 +3806,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3817,7 +3819,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3834,7 +3836,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3869,7 +3871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3878,7 +3880,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>89.881999999999948</v>
+        <v>93.631999999999948</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3888,12 +3890,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>187.875</v>
+        <v>189.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>45</v>
       </c>
@@ -3915,7 +3917,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>34884</v>
       </c>
@@ -3935,7 +3937,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34912</v>
       </c>
@@ -3955,7 +3957,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34943</v>
@@ -3976,7 +3978,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A90" si="0">EDATE(A13,1)</f>
         <v>34973</v>
@@ -3997,7 +3999,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -4018,7 +4020,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -4039,7 +4041,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>46</v>
       </c>
@@ -4057,7 +4059,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>35065</v>
@@ -4078,7 +4080,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>35096</v>
@@ -4099,7 +4101,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>35125</v>
@@ -4120,7 +4122,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -4147,7 +4149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -4168,7 +4170,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -4189,7 +4191,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -4210,7 +4212,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -4231,7 +4233,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -4258,7 +4260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -4279,7 +4281,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -4306,7 +4308,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -4331,7 +4333,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>54</v>
       </c>
@@ -4349,7 +4351,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f>EDATE(A29,1)</f>
         <v>35431</v>
@@ -4376,7 +4378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -4397,7 +4399,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -4424,7 +4426,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>62</v>
@@ -4446,7 +4448,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>35521</v>
@@ -4467,7 +4469,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4488,7 +4490,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A36,1)</f>
         <v>35582</v>
@@ -4515,7 +4517,7 @@
         <v>35590</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>66</v>
@@ -4537,7 +4539,7 @@
         <v>35594</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A37,1)</f>
         <v>35612</v>
@@ -4564,7 +4566,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
@@ -4586,7 +4588,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f>EDATE(A39,1)</f>
         <v>35643</v>
@@ -4611,7 +4613,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4638,7 +4640,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4665,7 +4667,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>72</v>
@@ -4687,7 +4689,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f>EDATE(A43,1)</f>
         <v>35735</v>
@@ -4714,7 +4716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4741,7 +4743,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>76</v>
@@ -4761,7 +4763,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="46" t="s">
         <v>55</v>
       </c>
@@ -4779,7 +4781,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A46,1)</f>
         <v>35796</v>
@@ -4806,7 +4808,7 @@
         <v>35818</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="0"/>
         <v>35827</v>
@@ -4833,7 +4835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>35855</v>
@@ -4860,7 +4862,7 @@
         <v>35874</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="0"/>
         <v>35886</v>
@@ -4887,7 +4889,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4914,7 +4916,7 @@
         <v>35919</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>65</v>
@@ -4936,7 +4938,7 @@
         <v>35930</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>59</v>
@@ -4958,7 +4960,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A53,1)</f>
         <v>35947</v>
@@ -4985,7 +4987,7 @@
         <v>35975</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>35977</v>
@@ -5012,7 +5014,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -5039,7 +5041,7 @@
         <v>36019</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>69</v>
@@ -5059,7 +5061,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f>EDATE(A58,1)</f>
         <v>36039</v>
@@ -5086,7 +5088,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="0"/>
         <v>36069</v>
@@ -5107,7 +5109,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -5128,7 +5130,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -5153,7 +5155,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="46" t="s">
         <v>56</v>
       </c>
@@ -5171,7 +5173,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f>EDATE(A63,1)</f>
         <v>36161</v>
@@ -5192,7 +5194,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="0"/>
         <v>36192</v>
@@ -5213,7 +5215,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="0"/>
         <v>36220</v>
@@ -5234,7 +5236,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="0"/>
         <v>36251</v>
@@ -5255,7 +5257,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -5276,7 +5278,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>36312</v>
@@ -5297,7 +5299,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -5318,7 +5320,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5343,7 +5345,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -5364,7 +5366,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -5385,7 +5387,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -5406,7 +5408,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -5433,7 +5435,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>86</v>
@@ -5453,7 +5455,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="46" t="s">
         <v>57</v>
       </c>
@@ -5471,7 +5473,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f>EDATE(A76,1)</f>
         <v>36526</v>
@@ -5492,7 +5494,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="0"/>
         <v>36557</v>
@@ -5513,7 +5515,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>36586</v>
@@ -5534,7 +5536,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="0"/>
         <v>36617</v>
@@ -5559,7 +5561,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="0"/>
         <v>36647</v>
@@ -5584,7 +5586,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="0"/>
         <v>36678</v>
@@ -5609,7 +5611,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="0"/>
         <v>36708</v>
@@ -5630,7 +5632,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="0"/>
         <v>36739</v>
@@ -5651,7 +5653,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="0"/>
         <v>36770</v>
@@ -5672,7 +5674,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="0"/>
         <v>36800</v>
@@ -5693,7 +5695,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="0"/>
         <v>36831</v>
@@ -5720,7 +5722,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>36861</v>
@@ -5745,7 +5747,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="46" t="s">
         <v>58</v>
       </c>
@@ -5763,7 +5765,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>36892</v>
@@ -5784,7 +5786,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" ref="A93:A156" si="1">EDATE(A92,1)</f>
         <v>36923</v>
@@ -5805,7 +5807,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="1"/>
         <v>36951</v>
@@ -5830,7 +5832,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="1"/>
         <v>36982</v>
@@ -5851,7 +5853,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="1"/>
         <v>37012</v>
@@ -5876,7 +5878,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="1"/>
         <v>37043</v>
@@ -5901,7 +5903,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -5922,7 +5924,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -5947,7 +5949,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -5972,7 +5974,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -5997,7 +5999,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="1"/>
         <v>37196</v>
@@ -6024,7 +6026,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>95</v>
@@ -6044,7 +6046,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A102,1)</f>
         <v>37226</v>
@@ -6069,7 +6071,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="46" t="s">
         <v>91</v>
       </c>
@@ -6087,7 +6089,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>37257</v>
@@ -6108,7 +6110,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="1"/>
         <v>37288</v>
@@ -6133,7 +6135,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -6154,7 +6156,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="1"/>
         <v>37347</v>
@@ -6179,7 +6181,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -6204,7 +6206,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -6225,7 +6227,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="1"/>
         <v>37438</v>
@@ -6250,7 +6252,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -6275,7 +6277,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -6300,7 +6302,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -6325,7 +6327,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -6350,7 +6352,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="1"/>
         <v>37591</v>
@@ -6375,7 +6377,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>106</v>
@@ -6395,7 +6397,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>107</v>
@@ -6415,7 +6417,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="46" t="s">
         <v>99</v>
       </c>
@@ -6433,7 +6435,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f>EDATE(A117,1)</f>
         <v>37622</v>
@@ -6454,7 +6456,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -6475,7 +6477,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -6496,7 +6498,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="1"/>
         <v>37712</v>
@@ -6517,7 +6519,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="1"/>
         <v>37742</v>
@@ -6538,7 +6540,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -6559,7 +6561,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>37803</v>
@@ -6580,7 +6582,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="1"/>
         <v>37834</v>
@@ -6601,7 +6603,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -6628,7 +6630,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -6649,7 +6651,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="1"/>
         <v>37926</v>
@@ -6676,7 +6678,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -6697,7 +6699,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="46" t="s">
         <v>108</v>
       </c>
@@ -6715,7 +6717,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A132,1)</f>
         <v>37987</v>
@@ -6736,7 +6738,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -6757,7 +6759,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="1"/>
         <v>38047</v>
@@ -6778,7 +6780,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -6799,7 +6801,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -6820,7 +6822,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -6841,7 +6843,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -6862,7 +6864,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -6883,7 +6885,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -6904,7 +6906,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -6925,7 +6927,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -6952,7 +6954,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -6973,7 +6975,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="46" t="s">
         <v>109</v>
       </c>
@@ -6991,7 +6993,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f>EDATE(A145,1)</f>
         <v>38353</v>
@@ -7018,7 +7020,7 @@
         <v>38397</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -7039,7 +7041,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="1"/>
         <v>38412</v>
@@ -7066,7 +7068,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -7087,7 +7089,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -7108,7 +7110,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -7129,7 +7131,7 @@
       <c r="J152" s="12"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="1"/>
         <v>38534</v>
@@ -7150,7 +7152,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -7171,7 +7173,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -7192,7 +7194,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -7213,7 +7215,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f t="shared" ref="A157:A222" si="2">EDATE(A156,1)</f>
         <v>38657</v>
@@ -7234,7 +7236,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" si="2"/>
         <v>38687</v>
@@ -7259,7 +7261,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="46" t="s">
         <v>114</v>
       </c>
@@ -7277,7 +7279,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>38718</v>
@@ -7298,7 +7300,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="2"/>
         <v>38749</v>
@@ -7319,7 +7321,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="2"/>
         <v>38777</v>
@@ -7340,7 +7342,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -7361,7 +7363,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -7382,7 +7384,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -7403,7 +7405,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -7424,7 +7426,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="2"/>
         <v>38930</v>
@@ -7445,7 +7447,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -7466,7 +7468,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="2"/>
         <v>38991</v>
@@ -7493,7 +7495,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>59</v>
@@ -7515,7 +7517,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>39022</v>
@@ -7542,7 +7544,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="2"/>
         <v>39052</v>
@@ -7563,7 +7565,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="46" t="s">
         <v>115</v>
       </c>
@@ -7581,7 +7583,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f>EDATE(A172,1)</f>
         <v>39083</v>
@@ -7608,7 +7610,7 @@
         <v>39084</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>65</v>
@@ -7630,7 +7632,7 @@
         <v>39099</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>39114</v>
@@ -7651,7 +7653,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="2"/>
         <v>39142</v>
@@ -7678,7 +7680,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>122</v>
@@ -7700,7 +7702,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f>EDATE(A177,1)</f>
         <v>39173</v>
@@ -7727,7 +7729,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="2"/>
         <v>39203</v>
@@ -7748,7 +7750,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="2"/>
         <v>39234</v>
@@ -7769,7 +7771,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="2"/>
         <v>39264</v>
@@ -7790,7 +7792,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="2"/>
         <v>39295</v>
@@ -7811,7 +7813,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -7838,7 +7840,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="2"/>
         <v>39356</v>
@@ -7859,7 +7861,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -7886,7 +7888,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -7907,7 +7909,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="46" t="s">
         <v>128</v>
       </c>
@@ -7925,7 +7927,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f>EDATE(A187,1)</f>
         <v>39448</v>
@@ -7946,7 +7948,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="2"/>
         <v>39479</v>
@@ -7973,7 +7975,7 @@
         <v>39498</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="2"/>
         <v>39508</v>
@@ -8000,7 +8002,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="2"/>
         <v>39539</v>
@@ -8021,7 +8023,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="2"/>
         <v>39569</v>
@@ -8042,7 +8044,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="2"/>
         <v>39600</v>
@@ -8063,7 +8065,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="2"/>
         <v>39630</v>
@@ -8084,7 +8086,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="2"/>
         <v>39661</v>
@@ -8105,7 +8107,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="2"/>
         <v>39692</v>
@@ -8126,7 +8128,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="2"/>
         <v>39722</v>
@@ -8147,7 +8149,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="2"/>
         <v>39753</v>
@@ -8174,7 +8176,7 @@
         <v>39776</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="2"/>
         <v>39783</v>
@@ -8201,7 +8203,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="46" t="s">
         <v>129</v>
       </c>
@@ -8219,7 +8221,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>39814</v>
@@ -8240,7 +8242,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f t="shared" si="2"/>
         <v>39845</v>
@@ -8261,7 +8263,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f t="shared" si="2"/>
         <v>39873</v>
@@ -8288,7 +8290,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f t="shared" si="2"/>
         <v>39904</v>
@@ -8309,7 +8311,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="2"/>
         <v>39934</v>
@@ -8336,7 +8338,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" si="2"/>
         <v>39965</v>
@@ -8357,7 +8359,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="2"/>
         <v>39995</v>
@@ -8378,7 +8380,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="2"/>
         <v>40026</v>
@@ -8399,7 +8401,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="2"/>
         <v>40057</v>
@@ -8420,7 +8422,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="2"/>
         <v>40087</v>
@@ -8447,7 +8449,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="2"/>
         <v>40118</v>
@@ -8474,7 +8476,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="2"/>
         <v>40148</v>
@@ -8501,7 +8503,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="46" t="s">
         <v>136</v>
       </c>
@@ -8519,7 +8521,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>40179</v>
@@ -8540,7 +8542,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="2"/>
         <v>40210</v>
@@ -8561,7 +8563,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f t="shared" si="2"/>
         <v>40238</v>
@@ -8582,7 +8584,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" si="2"/>
         <v>40269</v>
@@ -8603,7 +8605,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" si="2"/>
         <v>40299</v>
@@ -8624,7 +8626,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="2"/>
         <v>40330</v>
@@ -8651,7 +8653,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="2"/>
         <v>40360</v>
@@ -8672,7 +8674,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="2"/>
         <v>40391</v>
@@ -8693,7 +8695,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" ref="A223:A296" si="3">EDATE(A222,1)</f>
         <v>40422</v>
@@ -8720,7 +8722,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>59</v>
@@ -8742,7 +8744,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A223,1)</f>
         <v>40452</v>
@@ -8763,7 +8765,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="3"/>
         <v>40483</v>
@@ -8790,7 +8792,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="3"/>
         <v>40513</v>
@@ -8811,7 +8813,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="46" t="s">
         <v>137</v>
       </c>
@@ -8829,7 +8831,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>40544</v>
@@ -8856,7 +8858,7 @@
         <v>40574</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="3"/>
         <v>40575</v>
@@ -8877,7 +8879,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="3"/>
         <v>40603</v>
@@ -8898,7 +8900,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" si="3"/>
         <v>40634</v>
@@ -8925,7 +8927,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="3"/>
         <v>40664</v>
@@ -8952,7 +8954,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>59</v>
@@ -8974,7 +8976,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>40695</v>
@@ -8995,7 +8997,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="3"/>
         <v>40725</v>
@@ -9016,7 +9018,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -9037,7 +9039,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="3"/>
         <v>40787</v>
@@ -9062,7 +9064,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="3"/>
         <v>40817</v>
@@ -9089,7 +9091,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="3"/>
         <v>40848</v>
@@ -9116,7 +9118,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>112</v>
@@ -9138,7 +9140,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>154</v>
@@ -9158,7 +9160,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f>EDATE(A240,1)</f>
         <v>40878</v>
@@ -9179,7 +9181,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="46" t="s">
         <v>142</v>
       </c>
@@ -9197,7 +9199,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>40909</v>
@@ -9224,7 +9226,7 @@
         <v>40921</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" si="3"/>
         <v>40940</v>
@@ -9251,7 +9253,7 @@
         <v>40956</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="3"/>
         <v>40969</v>
@@ -9278,7 +9280,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>122</v>
@@ -9300,7 +9302,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f>EDATE(A247,1)</f>
         <v>41000</v>
@@ -9321,7 +9323,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="3"/>
         <v>41030</v>
@@ -9348,7 +9350,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="3"/>
         <v>41061</v>
@@ -9369,7 +9371,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="3"/>
         <v>41091</v>
@@ -9396,7 +9398,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>65</v>
@@ -9418,7 +9420,7 @@
         <v>41117</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A252,1)</f>
         <v>41122</v>
@@ -9445,7 +9447,7 @@
         <v>41135</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>159</v>
@@ -9465,7 +9467,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>41153</v>
@@ -9492,7 +9494,7 @@
         <v>41179</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>59</v>
@@ -9514,7 +9516,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>160</v>
@@ -9534,7 +9536,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f>EDATE(A256,1)</f>
         <v>41183</v>
@@ -9561,7 +9563,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>162</v>
@@ -9581,7 +9583,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f>EDATE(A259,1)</f>
         <v>41214</v>
@@ -9608,7 +9610,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>112</v>
@@ -9630,7 +9632,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>163</v>
@@ -9650,7 +9652,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>41244</v>
@@ -9675,7 +9677,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="46" t="s">
         <v>143</v>
       </c>
@@ -9693,7 +9695,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f>EDATE(A264,1)</f>
         <v>41275</v>
@@ -9720,7 +9722,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>167</v>
@@ -9740,7 +9742,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>41306</v>
@@ -9761,7 +9763,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" si="3"/>
         <v>41334</v>
@@ -9788,7 +9790,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>116</v>
@@ -9810,7 +9812,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f>EDATE(A269,1)</f>
         <v>41365</v>
@@ -9835,7 +9837,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" si="3"/>
         <v>41395</v>
@@ -9862,7 +9864,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>59</v>
@@ -9884,7 +9886,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>172</v>
@@ -9904,7 +9906,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A272,1)</f>
         <v>41426</v>
@@ -9929,7 +9931,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f t="shared" si="3"/>
         <v>41456</v>
@@ -9956,7 +9958,7 @@
         <v>41463</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>65</v>
@@ -9978,7 +9980,7 @@
         <v>41474</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>92</v>
@@ -9998,7 +10000,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A276,1)</f>
         <v>41487</v>
@@ -10023,7 +10025,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>176</v>
@@ -10043,7 +10045,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A279,1)</f>
         <v>41518</v>
@@ -10070,7 +10072,7 @@
         <v>41526</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>178</v>
@@ -10090,7 +10092,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f>EDATE(A281,1)</f>
         <v>41548</v>
@@ -10117,7 +10119,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>180</v>
@@ -10137,7 +10139,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f>EDATE(A283,1)</f>
         <v>41579</v>
@@ -10162,7 +10164,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f t="shared" si="3"/>
         <v>41609</v>
@@ -10189,7 +10191,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>183</v>
@@ -10209,7 +10211,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="46" t="s">
         <v>144</v>
       </c>
@@ -10227,7 +10229,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>41640</v>
@@ -10252,7 +10254,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="3"/>
         <v>41671</v>
@@ -10277,7 +10279,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="3"/>
         <v>41699</v>
@@ -10304,7 +10306,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>187</v>
@@ -10324,7 +10326,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>41730</v>
@@ -10351,7 +10353,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>189</v>
@@ -10371,7 +10373,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A293,1)</f>
         <v>41760</v>
@@ -10396,7 +10398,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="3"/>
         <v>41791</v>
@@ -10423,7 +10425,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>95</v>
@@ -10443,7 +10445,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>41821</v>
@@ -10468,7 +10470,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>192</v>
@@ -10488,7 +10490,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>41852</v>
@@ -10515,7 +10517,7 @@
         <v>41866</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>194</v>
@@ -10535,7 +10537,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="47"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A300,1)</f>
         <v>41883</v>
@@ -10562,7 +10564,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>195</v>
@@ -10582,7 +10584,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f>EDATE(A302,1)</f>
         <v>41913</v>
@@ -10609,7 +10611,7 @@
         <v>41915</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>59</v>
@@ -10631,7 +10633,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>197</v>
@@ -10651,7 +10653,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A304,1)</f>
         <v>41944</v>
@@ -10678,7 +10680,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>199</v>
@@ -10698,7 +10700,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f>EDATE(A307,1)</f>
         <v>41974</v>
@@ -10723,7 +10725,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="46" t="s">
         <v>145</v>
       </c>
@@ -10741,7 +10743,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f>EDATE(A309,1)</f>
         <v>42005</v>
@@ -10768,7 +10770,7 @@
         <v>41648</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>59</v>
@@ -10790,7 +10792,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>203</v>
@@ -10810,7 +10812,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f>EDATE(A311,1)</f>
         <v>42036</v>
@@ -10837,7 +10839,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>205</v>
@@ -10857,7 +10859,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="47"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A314,1)</f>
         <v>42064</v>
@@ -10884,7 +10886,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>207</v>
@@ -10904,7 +10906,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>42095</v>
@@ -10931,7 +10933,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>65</v>
@@ -10953,7 +10955,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>122</v>
@@ -10975,7 +10977,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>210</v>
@@ -10995,7 +10997,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A318,1)</f>
         <v>42125</v>
@@ -11022,7 +11024,7 @@
         <v>42132</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>211</v>
@@ -11042,7 +11044,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>42156</v>
@@ -11067,7 +11069,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" ref="A325:A405" si="4">EDATE(A324,1)</f>
         <v>42186</v>
@@ -11092,7 +11094,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" si="4"/>
         <v>42217</v>
@@ -11119,7 +11121,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>215</v>
@@ -11139,7 +11141,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="47"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f>EDATE(A326,1)</f>
         <v>42248</v>
@@ -11166,7 +11168,7 @@
         <v>42268</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>216</v>
@@ -11186,7 +11188,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f>EDATE(A328,1)</f>
         <v>42278</v>
@@ -11213,7 +11215,7 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>59</v>
@@ -11235,7 +11237,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>217</v>
@@ -11255,7 +11257,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A330,1)</f>
         <v>42309</v>
@@ -11282,7 +11284,7 @@
         <v>42326</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>59</v>
@@ -11304,7 +11306,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>59</v>
@@ -11326,7 +11328,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>66</v>
@@ -11348,7 +11350,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>62</v>
@@ -11370,7 +11372,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>219</v>
@@ -11390,7 +11392,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f>EDATE(A333,1)</f>
         <v>42339</v>
@@ -11415,7 +11417,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="46" t="s">
         <v>201</v>
       </c>
@@ -11433,7 +11435,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>42370</v>
@@ -11460,7 +11462,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>59</v>
@@ -11482,7 +11484,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>65</v>
@@ -11504,7 +11506,7 @@
         <v>42394</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>224</v>
@@ -11524,7 +11526,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f>EDATE(A341,1)</f>
         <v>42401</v>
@@ -11551,7 +11553,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>65</v>
@@ -11573,7 +11575,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>228</v>
@@ -11593,7 +11595,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="47"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f>EDATE(A345,1)</f>
         <v>42430</v>
@@ -11620,7 +11622,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>65</v>
@@ -11642,7 +11644,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>230</v>
@@ -11662,7 +11664,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A348,1)</f>
         <v>42461</v>
@@ -11689,7 +11691,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>231</v>
@@ -11709,7 +11711,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f>EDATE(A351,1)</f>
         <v>42491</v>
@@ -11736,7 +11738,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>232</v>
@@ -11756,7 +11758,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f>EDATE(A353,1)</f>
         <v>42522</v>
@@ -11783,7 +11785,7 @@
         <v>42541</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>233</v>
@@ -11803,7 +11805,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="47"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f>EDATE(A355,1)</f>
         <v>42552</v>
@@ -11830,7 +11832,7 @@
         <v>42571</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>234</v>
@@ -11850,7 +11852,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="47"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f>EDATE(A357,1)</f>
         <v>42583</v>
@@ -11877,7 +11879,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>59</v>
@@ -11899,7 +11901,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>235</v>
@@ -11919,7 +11921,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f>EDATE(A359,1)</f>
         <v>42614</v>
@@ -11944,7 +11946,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f t="shared" si="4"/>
         <v>42644</v>
@@ -11971,7 +11973,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>65</v>
@@ -11993,7 +11995,7 @@
         <v>42660</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>65</v>
@@ -12015,7 +12017,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>214</v>
@@ -12035,7 +12037,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="47"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f>EDATE(A363,1)</f>
         <v>42675</v>
@@ -12062,7 +12064,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>59</v>
@@ -12084,7 +12086,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>240</v>
@@ -12106,7 +12108,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>241</v>
@@ -12126,7 +12128,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f>EDATE(A367,1)</f>
         <v>42705</v>
@@ -12153,7 +12155,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>244</v>
@@ -12173,7 +12175,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="46" t="s">
         <v>202</v>
       </c>
@@ -12191,7 +12193,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A371,1)</f>
         <v>42736</v>
@@ -12218,7 +12220,7 @@
         <v>42744</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>66</v>
@@ -12240,7 +12242,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>249</v>
@@ -12260,7 +12262,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>42767</v>
@@ -12287,7 +12289,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>65</v>
@@ -12309,7 +12311,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>250</v>
@@ -12329,7 +12331,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f>EDATE(A377,1)</f>
         <v>42795</v>
@@ -12354,7 +12356,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="4"/>
         <v>42826</v>
@@ -12381,7 +12383,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>253</v>
@@ -12401,7 +12403,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f>EDATE(A381,1)</f>
         <v>42856</v>
@@ -12428,7 +12430,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>65</v>
@@ -12450,7 +12452,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>98</v>
@@ -12470,7 +12472,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="47"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A383,1)</f>
         <v>42887</v>
@@ -12497,7 +12499,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>256</v>
@@ -12517,7 +12519,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f>EDATE(A386,1)</f>
         <v>42917</v>
@@ -12546,7 +12548,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>259</v>
@@ -12566,7 +12568,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f>EDATE(A388,1)</f>
         <v>42948</v>
@@ -12593,7 +12595,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>260</v>
@@ -12613,7 +12615,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>59</v>
@@ -12635,7 +12637,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>263</v>
@@ -12655,7 +12657,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="47"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f>EDATE(A390,1)</f>
         <v>42979</v>
@@ -12680,7 +12682,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f t="shared" si="4"/>
         <v>43009</v>
@@ -12707,7 +12709,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>266</v>
@@ -12727,7 +12729,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>43040</v>
@@ -12754,7 +12756,7 @@
         <v>43052</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f t="shared" si="4"/>
         <v>43070</v>
@@ -12779,7 +12781,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>59</v>
@@ -12801,7 +12803,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>59</v>
@@ -12823,7 +12825,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>47</v>
@@ -12845,7 +12847,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="46" t="s">
         <v>246</v>
       </c>
@@ -12863,7 +12865,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f>EDATE(A398,1)</f>
         <v>43101</v>
@@ -12888,7 +12890,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f t="shared" si="4"/>
         <v>43132</v>
@@ -12915,7 +12917,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" si="4"/>
         <v>43160</v>
@@ -12942,7 +12944,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f t="shared" ref="A406:A469" si="5">EDATE(A405,1)</f>
         <v>43191</v>
@@ -12963,7 +12965,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f t="shared" si="5"/>
         <v>43221</v>
@@ -12984,7 +12986,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" si="5"/>
         <v>43252</v>
@@ -13011,7 +13013,7 @@
         <v>43276</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f t="shared" si="5"/>
         <v>43282</v>
@@ -13036,7 +13038,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>69</v>
@@ -13056,7 +13058,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f>EDATE(A409,1)</f>
         <v>43313</v>
@@ -13083,7 +13085,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>59</v>
@@ -13105,7 +13107,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>43344</v>
@@ -13132,7 +13134,7 @@
         <v>43360</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f t="shared" si="5"/>
         <v>43374</v>
@@ -13159,7 +13161,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>59</v>
@@ -13181,7 +13183,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>43405</v>
@@ -13202,7 +13204,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f t="shared" si="5"/>
         <v>43435</v>
@@ -13229,7 +13231,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>65</v>
@@ -13251,7 +13253,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="46" t="s">
         <v>247</v>
       </c>
@@ -13269,7 +13271,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f>EDATE(A417,1)</f>
         <v>43466</v>
@@ -13296,7 +13298,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" si="5"/>
         <v>43497</v>
@@ -13317,7 +13319,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f t="shared" si="5"/>
         <v>43525</v>
@@ -13344,7 +13346,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f t="shared" si="5"/>
         <v>43556</v>
@@ -13371,7 +13373,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <f t="shared" si="5"/>
         <v>43586</v>
@@ -13392,7 +13394,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f t="shared" si="5"/>
         <v>43617</v>
@@ -13419,7 +13421,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f t="shared" si="5"/>
         <v>43647</v>
@@ -13446,7 +13448,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>69</v>
@@ -13466,7 +13468,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f>EDATE(A426,1)</f>
         <v>43678</v>
@@ -13491,7 +13493,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f t="shared" si="5"/>
         <v>43709</v>
@@ -13518,7 +13520,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>65</v>
@@ -13540,7 +13542,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f>EDATE(A429,1)</f>
         <v>43739</v>
@@ -13561,7 +13563,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="5"/>
         <v>43770</v>
@@ -13588,7 +13590,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>282</v>
@@ -13610,7 +13612,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f>EDATE(A432,1)</f>
         <v>43800</v>
@@ -13631,7 +13633,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="46" t="s">
         <v>248</v>
       </c>
@@ -13649,7 +13651,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f>EDATE(A434,1)</f>
         <v>43831</v>
@@ -13676,7 +13678,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f t="shared" si="5"/>
         <v>43862</v>
@@ -13697,7 +13699,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <f t="shared" si="5"/>
         <v>43891</v>
@@ -13718,7 +13720,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f t="shared" si="5"/>
         <v>43922</v>
@@ -13739,7 +13741,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="47"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f t="shared" si="5"/>
         <v>43952</v>
@@ -13760,7 +13762,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <f t="shared" si="5"/>
         <v>43983</v>
@@ -13781,7 +13783,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f t="shared" si="5"/>
         <v>44013</v>
@@ -13802,7 +13804,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="47"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f t="shared" si="5"/>
         <v>44044</v>
@@ -13823,7 +13825,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="5"/>
         <v>44075</v>
@@ -13844,7 +13846,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f t="shared" si="5"/>
         <v>44105</v>
@@ -13865,7 +13867,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f t="shared" si="5"/>
         <v>44136</v>
@@ -13886,7 +13888,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="5"/>
         <v>44166</v>
@@ -13913,7 +13915,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="46" t="s">
         <v>287</v>
       </c>
@@ -13931,7 +13933,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f>EDATE(A447,1)</f>
         <v>44197</v>
@@ -13958,7 +13960,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f t="shared" si="5"/>
         <v>44228</v>
@@ -13979,7 +13981,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" si="5"/>
         <v>44256</v>
@@ -14000,7 +14002,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f t="shared" si="5"/>
         <v>44287</v>
@@ -14021,7 +14023,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f t="shared" si="5"/>
         <v>44317</v>
@@ -14042,7 +14044,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f t="shared" si="5"/>
         <v>44348</v>
@@ -14063,7 +14065,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <f t="shared" si="5"/>
         <v>44378</v>
@@ -14084,7 +14086,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f t="shared" si="5"/>
         <v>44409</v>
@@ -14105,7 +14107,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f t="shared" si="5"/>
         <v>44440</v>
@@ -14126,7 +14128,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" si="5"/>
         <v>44470</v>
@@ -14147,7 +14149,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="5"/>
         <v>44501</v>
@@ -14168,7 +14170,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f t="shared" si="5"/>
         <v>44531</v>
@@ -14195,7 +14197,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="46" t="s">
         <v>290</v>
       </c>
@@ -14213,7 +14215,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f>EDATE(A460,1)</f>
         <v>44562</v>
@@ -14234,7 +14236,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f t="shared" si="5"/>
         <v>44593</v>
@@ -14255,7 +14257,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f t="shared" si="5"/>
         <v>44621</v>
@@ -14276,7 +14278,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f t="shared" si="5"/>
         <v>44652</v>
@@ -14303,7 +14305,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f t="shared" si="5"/>
         <v>44682</v>
@@ -14324,7 +14326,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="5"/>
         <v>44713</v>
@@ -14351,7 +14353,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f t="shared" si="5"/>
         <v>44743</v>
@@ -14378,7 +14380,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" si="5"/>
         <v>44774</v>
@@ -14405,7 +14407,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="50"/>
       <c r="B470" s="20" t="s">
         <v>59</v>
@@ -14427,7 +14429,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>44805</v>
       </c>
@@ -14447,7 +14449,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>44835</v>
       </c>
@@ -14473,7 +14475,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>44866</v>
       </c>
@@ -14499,7 +14501,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>65</v>
@@ -14521,7 +14523,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>44896</v>
       </c>
@@ -14547,7 +14549,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="46" t="s">
         <v>293</v>
       </c>
@@ -14565,7 +14567,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44927</v>
       </c>
@@ -14585,58 +14587,76 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>44958</v>
       </c>
       <c r="B478" s="20"/>
-      <c r="C478" s="13"/>
+      <c r="C478" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D478" s="39"/>
       <c r="E478" s="9"/>
       <c r="F478" s="20"/>
-      <c r="G478" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G478" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H478" s="39"/>
       <c r="I478" s="9"/>
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A479" s="40"/>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="40">
+        <v>44986</v>
+      </c>
       <c r="B479" s="20"/>
-      <c r="C479" s="13"/>
+      <c r="C479" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D479" s="39"/>
       <c r="E479" s="9"/>
       <c r="F479" s="20"/>
-      <c r="G479" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G479" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H479" s="39"/>
       <c r="I479" s="9"/>
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A480" s="40"/>
-      <c r="B480" s="20"/>
-      <c r="C480" s="13"/>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B480" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C480" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D480" s="39"/>
       <c r="E480" s="9"/>
       <c r="F480" s="20"/>
-      <c r="G480" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H480" s="39"/>
+      <c r="G480" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H480" s="39">
+        <v>2</v>
+      </c>
       <c r="I480" s="9"/>
       <c r="J480" s="11"/>
-      <c r="K480" s="20"/>
-    </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A481" s="40"/>
+      <c r="K480" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481" s="40">
+        <v>45047</v>
+      </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
       <c r="D481" s="39"/>
@@ -14651,7 +14671,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -14667,7 +14687,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="50"/>
       <c r="B483" s="15"/>
       <c r="C483" s="41"/>
@@ -14698,10 +14718,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14724,7 +14744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14732,21 +14752,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -14759,7 +14779,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14788,7 +14808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.125</v>
       </c>
@@ -14816,17 +14836,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14847,7 +14867,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14874,7 +14894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14900,7 +14920,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14926,7 +14946,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14952,7 +14972,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14978,7 +14998,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15004,7 +15024,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15030,7 +15050,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15056,7 +15076,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15076,7 +15096,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15096,7 +15116,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15116,7 +15136,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15137,7 +15157,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15158,7 +15178,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15179,7 +15199,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15200,7 +15220,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15221,7 +15241,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15242,7 +15262,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15263,7 +15283,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15284,7 +15304,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15305,7 +15325,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15326,7 +15346,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15347,7 +15367,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15368,7 +15388,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15389,7 +15409,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15410,7 +15430,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15431,7 +15451,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15452,7 +15472,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15473,7 +15493,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15494,7 +15514,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15515,7 +15535,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15536,7 +15556,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15545,7 +15565,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15554,7 +15574,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15563,7 +15583,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15572,7 +15592,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15581,7 +15601,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15590,7 +15610,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15599,7 +15619,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15608,7 +15628,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15617,7 +15637,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15626,7 +15646,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15635,7 +15655,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15644,7 +15664,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15653,7 +15673,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15662,7 +15682,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15671,7 +15691,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15680,7 +15700,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15689,7 +15709,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15698,7 +15718,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15707,7 +15727,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15716,7 +15736,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15725,7 +15745,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15734,7 +15754,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15743,7 +15763,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15752,7 +15772,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15761,7 +15781,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15770,7 +15790,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15779,7 +15799,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15788,7 +15808,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15797,7 +15817,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BUGARIN, MA. ANA.xlsx
+++ b/REGULAR/BUGARIN, MA. ANA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073A4F64-154D-492B-98A1-ADD2BC3F8942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="297">
   <si>
     <t>PERIOD</t>
   </si>
@@ -922,12 +923,15 @@
   </si>
   <si>
     <t>4/28,5/2/2023</t>
+  </si>
+  <si>
+    <t>6/1/223</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1801,7 +1805,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1848,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1912,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1972,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2038,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2101,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2199,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2258,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2323,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2366,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2441,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2627,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2693,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2751,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2817,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2869,7 +2873,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +2948,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,7 +2991,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,7 +3057,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,7 +3113,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3207,7 +3211,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,7 +3274,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3319,7 +3323,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3336,25 +3340,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K483" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K483" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3366,13 +3370,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3381,14 +3385,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3692,7 +3696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3702,7 +3706,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3710,34 +3714,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3495" topLeftCell="A463" activePane="bottomLeft"/>
+      <pane ySplit="3492" topLeftCell="A475" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="B481" sqref="B481"/>
+      <selection pane="bottomLeft" activeCell="K483" sqref="K483"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3758,7 +3762,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3776,7 +3780,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3798,7 +3802,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3806,7 +3810,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3819,7 +3823,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3836,7 +3840,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3871,7 +3875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3880,7 +3884,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>93.631999999999948</v>
+        <v>94.881999999999948</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3890,12 +3894,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>189.625</v>
+        <v>188.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>45</v>
       </c>
@@ -3917,7 +3921,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>34884</v>
       </c>
@@ -3937,7 +3941,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34912</v>
       </c>
@@ -3957,7 +3961,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34943</v>
@@ -3978,7 +3982,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A90" si="0">EDATE(A13,1)</f>
         <v>34973</v>
@@ -3999,7 +4003,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -4020,7 +4024,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -4041,7 +4045,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>46</v>
       </c>
@@ -4059,7 +4063,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>35065</v>
@@ -4080,7 +4084,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>35096</v>
@@ -4101,7 +4105,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>35125</v>
@@ -4122,7 +4126,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -4149,7 +4153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -4170,7 +4174,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -4191,7 +4195,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -4212,7 +4216,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -4233,7 +4237,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -4260,7 +4264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -4281,7 +4285,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -4308,7 +4312,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -4333,7 +4337,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>54</v>
       </c>
@@ -4351,7 +4355,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f>EDATE(A29,1)</f>
         <v>35431</v>
@@ -4378,7 +4382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -4399,7 +4403,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -4426,7 +4430,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>62</v>
@@ -4448,7 +4452,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>35521</v>
@@ -4469,7 +4473,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4490,7 +4494,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f>EDATE(A36,1)</f>
         <v>35582</v>
@@ -4517,7 +4521,7 @@
         <v>35590</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>66</v>
@@ -4539,7 +4543,7 @@
         <v>35594</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f>EDATE(A37,1)</f>
         <v>35612</v>
@@ -4566,7 +4570,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
@@ -4588,7 +4592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f>EDATE(A39,1)</f>
         <v>35643</v>
@@ -4613,7 +4617,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4640,7 +4644,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4667,7 +4671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>72</v>
@@ -4689,7 +4693,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f>EDATE(A43,1)</f>
         <v>35735</v>
@@ -4716,7 +4720,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4743,7 +4747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>76</v>
@@ -4763,7 +4767,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="46" t="s">
         <v>55</v>
       </c>
@@ -4781,7 +4785,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A46,1)</f>
         <v>35796</v>
@@ -4808,7 +4812,7 @@
         <v>35818</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="0"/>
         <v>35827</v>
@@ -4835,7 +4839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>35855</v>
@@ -4862,7 +4866,7 @@
         <v>35874</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="0"/>
         <v>35886</v>
@@ -4889,7 +4893,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4916,7 +4920,7 @@
         <v>35919</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>65</v>
@@ -4938,7 +4942,7 @@
         <v>35930</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>59</v>
@@ -4960,7 +4964,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A53,1)</f>
         <v>35947</v>
@@ -4987,7 +4991,7 @@
         <v>35975</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>35977</v>
@@ -5014,7 +5018,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -5041,7 +5045,7 @@
         <v>36019</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>69</v>
@@ -5061,7 +5065,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f>EDATE(A58,1)</f>
         <v>36039</v>
@@ -5088,7 +5092,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="0"/>
         <v>36069</v>
@@ -5109,7 +5113,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -5130,7 +5134,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -5155,7 +5159,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="46" t="s">
         <v>56</v>
       </c>
@@ -5173,7 +5177,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f>EDATE(A63,1)</f>
         <v>36161</v>
@@ -5194,7 +5198,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="0"/>
         <v>36192</v>
@@ -5215,7 +5219,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="0"/>
         <v>36220</v>
@@ -5236,7 +5240,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="0"/>
         <v>36251</v>
@@ -5257,7 +5261,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -5278,7 +5282,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>36312</v>
@@ -5299,7 +5303,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -5320,7 +5324,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5345,7 +5349,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -5366,7 +5370,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -5387,7 +5391,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -5408,7 +5412,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -5435,7 +5439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>86</v>
@@ -5455,7 +5459,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="46" t="s">
         <v>57</v>
       </c>
@@ -5473,7 +5477,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f>EDATE(A76,1)</f>
         <v>36526</v>
@@ -5494,7 +5498,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="0"/>
         <v>36557</v>
@@ -5515,7 +5519,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>36586</v>
@@ -5536,7 +5540,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f t="shared" si="0"/>
         <v>36617</v>
@@ -5561,7 +5565,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f t="shared" si="0"/>
         <v>36647</v>
@@ -5586,7 +5590,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="0"/>
         <v>36678</v>
@@ -5611,7 +5615,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f t="shared" si="0"/>
         <v>36708</v>
@@ -5632,7 +5636,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="0"/>
         <v>36739</v>
@@ -5653,7 +5657,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="0"/>
         <v>36770</v>
@@ -5674,7 +5678,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f t="shared" si="0"/>
         <v>36800</v>
@@ -5695,7 +5699,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" si="0"/>
         <v>36831</v>
@@ -5722,7 +5726,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>36861</v>
@@ -5747,7 +5751,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="46" t="s">
         <v>58</v>
       </c>
@@ -5765,7 +5769,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>36892</v>
@@ -5786,7 +5790,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" ref="A93:A156" si="1">EDATE(A92,1)</f>
         <v>36923</v>
@@ -5807,7 +5811,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="1"/>
         <v>36951</v>
@@ -5832,7 +5836,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="1"/>
         <v>36982</v>
@@ -5853,7 +5857,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="1"/>
         <v>37012</v>
@@ -5878,7 +5882,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="1"/>
         <v>37043</v>
@@ -5903,7 +5907,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -5924,7 +5928,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -5949,7 +5953,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -5974,7 +5978,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -5999,7 +6003,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="1"/>
         <v>37196</v>
@@ -6026,7 +6030,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>95</v>
@@ -6046,7 +6050,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f>EDATE(A102,1)</f>
         <v>37226</v>
@@ -6071,7 +6075,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="46" t="s">
         <v>91</v>
       </c>
@@ -6089,7 +6093,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>37257</v>
@@ -6110,7 +6114,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="1"/>
         <v>37288</v>
@@ -6135,7 +6139,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -6156,7 +6160,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="1"/>
         <v>37347</v>
@@ -6181,7 +6185,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -6206,7 +6210,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -6227,7 +6231,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="1"/>
         <v>37438</v>
@@ -6252,7 +6256,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -6277,7 +6281,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -6302,7 +6306,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -6327,7 +6331,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -6352,7 +6356,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="1"/>
         <v>37591</v>
@@ -6377,7 +6381,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>106</v>
@@ -6397,7 +6401,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>107</v>
@@ -6417,7 +6421,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="46" t="s">
         <v>99</v>
       </c>
@@ -6435,7 +6439,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f>EDATE(A117,1)</f>
         <v>37622</v>
@@ -6456,7 +6460,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -6477,7 +6481,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -6498,7 +6502,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="1"/>
         <v>37712</v>
@@ -6519,7 +6523,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="1"/>
         <v>37742</v>
@@ -6540,7 +6544,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -6561,7 +6565,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>37803</v>
@@ -6582,7 +6586,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="1"/>
         <v>37834</v>
@@ -6603,7 +6607,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -6630,7 +6634,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -6651,7 +6655,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="1"/>
         <v>37926</v>
@@ -6678,7 +6682,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -6699,7 +6703,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="46" t="s">
         <v>108</v>
       </c>
@@ -6717,7 +6721,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A132,1)</f>
         <v>37987</v>
@@ -6738,7 +6742,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -6759,7 +6763,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="1"/>
         <v>38047</v>
@@ -6780,7 +6784,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -6801,7 +6805,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -6822,7 +6826,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -6843,7 +6847,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -6864,7 +6868,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -6885,7 +6889,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -6906,7 +6910,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -6927,7 +6931,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -6954,7 +6958,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -6975,7 +6979,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="46" t="s">
         <v>109</v>
       </c>
@@ -6993,7 +6997,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A145,1)</f>
         <v>38353</v>
@@ -7020,7 +7024,7 @@
         <v>38397</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -7041,7 +7045,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="1"/>
         <v>38412</v>
@@ -7068,7 +7072,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -7089,7 +7093,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -7110,7 +7114,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -7131,7 +7135,7 @@
       <c r="J152" s="12"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="1"/>
         <v>38534</v>
@@ -7152,7 +7156,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -7173,7 +7177,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -7194,7 +7198,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -7215,7 +7219,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f t="shared" ref="A157:A222" si="2">EDATE(A156,1)</f>
         <v>38657</v>
@@ -7236,7 +7240,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" si="2"/>
         <v>38687</v>
@@ -7261,7 +7265,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="46" t="s">
         <v>114</v>
       </c>
@@ -7279,7 +7283,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>38718</v>
@@ -7300,7 +7304,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="2"/>
         <v>38749</v>
@@ -7321,7 +7325,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="2"/>
         <v>38777</v>
@@ -7342,7 +7346,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -7363,7 +7367,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -7384,7 +7388,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -7405,7 +7409,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -7426,7 +7430,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" si="2"/>
         <v>38930</v>
@@ -7447,7 +7451,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -7468,7 +7472,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="2"/>
         <v>38991</v>
@@ -7495,7 +7499,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>59</v>
@@ -7517,7 +7521,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>39022</v>
@@ -7544,7 +7548,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="2"/>
         <v>39052</v>
@@ -7565,7 +7569,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="46" t="s">
         <v>115</v>
       </c>
@@ -7583,7 +7587,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f>EDATE(A172,1)</f>
         <v>39083</v>
@@ -7610,7 +7614,7 @@
         <v>39084</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>65</v>
@@ -7632,7 +7636,7 @@
         <v>39099</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>39114</v>
@@ -7653,7 +7657,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f t="shared" si="2"/>
         <v>39142</v>
@@ -7680,7 +7684,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>122</v>
@@ -7702,7 +7706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A177,1)</f>
         <v>39173</v>
@@ -7729,7 +7733,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" si="2"/>
         <v>39203</v>
@@ -7750,7 +7754,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" si="2"/>
         <v>39234</v>
@@ -7771,7 +7775,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="2"/>
         <v>39264</v>
@@ -7792,7 +7796,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="2"/>
         <v>39295</v>
@@ -7813,7 +7817,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -7840,7 +7844,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f t="shared" si="2"/>
         <v>39356</v>
@@ -7861,7 +7865,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -7888,7 +7892,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -7909,7 +7913,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="46" t="s">
         <v>128</v>
       </c>
@@ -7927,7 +7931,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f>EDATE(A187,1)</f>
         <v>39448</v>
@@ -7948,7 +7952,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="2"/>
         <v>39479</v>
@@ -7975,7 +7979,7 @@
         <v>39498</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f t="shared" si="2"/>
         <v>39508</v>
@@ -8002,7 +8006,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" si="2"/>
         <v>39539</v>
@@ -8023,7 +8027,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="2"/>
         <v>39569</v>
@@ -8044,7 +8048,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="2"/>
         <v>39600</v>
@@ -8065,7 +8069,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="2"/>
         <v>39630</v>
@@ -8086,7 +8090,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="2"/>
         <v>39661</v>
@@ -8107,7 +8111,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f t="shared" si="2"/>
         <v>39692</v>
@@ -8128,7 +8132,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f t="shared" si="2"/>
         <v>39722</v>
@@ -8149,7 +8153,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="2"/>
         <v>39753</v>
@@ -8176,7 +8180,7 @@
         <v>39776</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="2"/>
         <v>39783</v>
@@ -8203,7 +8207,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="46" t="s">
         <v>129</v>
       </c>
@@ -8221,7 +8225,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>39814</v>
@@ -8242,7 +8246,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f t="shared" si="2"/>
         <v>39845</v>
@@ -8263,7 +8267,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f t="shared" si="2"/>
         <v>39873</v>
@@ -8290,7 +8294,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" si="2"/>
         <v>39904</v>
@@ -8311,7 +8315,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="2"/>
         <v>39934</v>
@@ -8338,7 +8342,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f t="shared" si="2"/>
         <v>39965</v>
@@ -8359,7 +8363,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f t="shared" si="2"/>
         <v>39995</v>
@@ -8380,7 +8384,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="2"/>
         <v>40026</v>
@@ -8401,7 +8405,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="2"/>
         <v>40057</v>
@@ -8422,7 +8426,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" si="2"/>
         <v>40087</v>
@@ -8449,7 +8453,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f t="shared" si="2"/>
         <v>40118</v>
@@ -8476,7 +8480,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="2"/>
         <v>40148</v>
@@ -8503,7 +8507,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="46" t="s">
         <v>136</v>
       </c>
@@ -8521,7 +8525,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>40179</v>
@@ -8542,7 +8546,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f t="shared" si="2"/>
         <v>40210</v>
@@ -8563,7 +8567,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f t="shared" si="2"/>
         <v>40238</v>
@@ -8584,7 +8588,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" si="2"/>
         <v>40269</v>
@@ -8605,7 +8609,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f t="shared" si="2"/>
         <v>40299</v>
@@ -8626,7 +8630,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" si="2"/>
         <v>40330</v>
@@ -8653,7 +8657,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="2"/>
         <v>40360</v>
@@ -8674,7 +8678,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="2"/>
         <v>40391</v>
@@ -8695,7 +8699,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" ref="A223:A296" si="3">EDATE(A222,1)</f>
         <v>40422</v>
@@ -8722,7 +8726,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>59</v>
@@ -8744,7 +8748,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f>EDATE(A223,1)</f>
         <v>40452</v>
@@ -8765,7 +8769,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" si="3"/>
         <v>40483</v>
@@ -8792,7 +8796,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="3"/>
         <v>40513</v>
@@ -8813,7 +8817,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="46" t="s">
         <v>137</v>
       </c>
@@ -8831,7 +8835,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>40544</v>
@@ -8858,7 +8862,7 @@
         <v>40574</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="3"/>
         <v>40575</v>
@@ -8879,7 +8883,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="3"/>
         <v>40603</v>
@@ -8900,7 +8904,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f t="shared" si="3"/>
         <v>40634</v>
@@ -8927,7 +8931,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f t="shared" si="3"/>
         <v>40664</v>
@@ -8954,7 +8958,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>59</v>
@@ -8976,7 +8980,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>40695</v>
@@ -8997,7 +9001,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="3"/>
         <v>40725</v>
@@ -9018,7 +9022,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -9039,7 +9043,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="3"/>
         <v>40787</v>
@@ -9064,7 +9068,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="3"/>
         <v>40817</v>
@@ -9091,7 +9095,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="3"/>
         <v>40848</v>
@@ -9118,7 +9122,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>112</v>
@@ -9140,7 +9144,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>154</v>
@@ -9160,7 +9164,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A240,1)</f>
         <v>40878</v>
@@ -9181,7 +9185,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="46" t="s">
         <v>142</v>
       </c>
@@ -9199,7 +9203,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>40909</v>
@@ -9226,7 +9230,7 @@
         <v>40921</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" si="3"/>
         <v>40940</v>
@@ -9253,7 +9257,7 @@
         <v>40956</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" si="3"/>
         <v>40969</v>
@@ -9280,7 +9284,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>122</v>
@@ -9302,7 +9306,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f>EDATE(A247,1)</f>
         <v>41000</v>
@@ -9323,7 +9327,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="3"/>
         <v>41030</v>
@@ -9350,7 +9354,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="3"/>
         <v>41061</v>
@@ -9371,7 +9375,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f t="shared" si="3"/>
         <v>41091</v>
@@ -9398,7 +9402,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>65</v>
@@ -9420,7 +9424,7 @@
         <v>41117</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A252,1)</f>
         <v>41122</v>
@@ -9447,7 +9451,7 @@
         <v>41135</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>159</v>
@@ -9467,7 +9471,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>41153</v>
@@ -9494,7 +9498,7 @@
         <v>41179</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>59</v>
@@ -9516,7 +9520,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>160</v>
@@ -9536,7 +9540,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f>EDATE(A256,1)</f>
         <v>41183</v>
@@ -9563,7 +9567,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>162</v>
@@ -9583,7 +9587,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f>EDATE(A259,1)</f>
         <v>41214</v>
@@ -9610,7 +9614,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>112</v>
@@ -9632,7 +9636,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>163</v>
@@ -9652,7 +9656,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>41244</v>
@@ -9677,7 +9681,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="46" t="s">
         <v>143</v>
       </c>
@@ -9695,7 +9699,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f>EDATE(A264,1)</f>
         <v>41275</v>
@@ -9722,7 +9726,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>167</v>
@@ -9742,7 +9746,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>41306</v>
@@ -9763,7 +9767,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f t="shared" si="3"/>
         <v>41334</v>
@@ -9790,7 +9794,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>116</v>
@@ -9812,7 +9816,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A269,1)</f>
         <v>41365</v>
@@ -9837,7 +9841,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" si="3"/>
         <v>41395</v>
@@ -9864,7 +9868,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>59</v>
@@ -9886,7 +9890,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>172</v>
@@ -9906,7 +9910,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A272,1)</f>
         <v>41426</v>
@@ -9931,7 +9935,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f t="shared" si="3"/>
         <v>41456</v>
@@ -9958,7 +9962,7 @@
         <v>41463</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>65</v>
@@ -9980,7 +9984,7 @@
         <v>41474</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>92</v>
@@ -10000,7 +10004,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A276,1)</f>
         <v>41487</v>
@@ -10025,7 +10029,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>176</v>
@@ -10045,7 +10049,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f>EDATE(A279,1)</f>
         <v>41518</v>
@@ -10072,7 +10076,7 @@
         <v>41526</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>178</v>
@@ -10092,7 +10096,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f>EDATE(A281,1)</f>
         <v>41548</v>
@@ -10119,7 +10123,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>180</v>
@@ -10139,7 +10143,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f>EDATE(A283,1)</f>
         <v>41579</v>
@@ -10164,7 +10168,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f t="shared" si="3"/>
         <v>41609</v>
@@ -10191,7 +10195,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>183</v>
@@ -10211,7 +10215,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="46" t="s">
         <v>144</v>
       </c>
@@ -10229,7 +10233,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>41640</v>
@@ -10254,7 +10258,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="3"/>
         <v>41671</v>
@@ -10279,7 +10283,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="3"/>
         <v>41699</v>
@@ -10306,7 +10310,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>187</v>
@@ -10326,7 +10330,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>41730</v>
@@ -10353,7 +10357,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>189</v>
@@ -10373,7 +10377,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A293,1)</f>
         <v>41760</v>
@@ -10398,7 +10402,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f t="shared" si="3"/>
         <v>41791</v>
@@ -10425,7 +10429,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>95</v>
@@ -10445,7 +10449,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>41821</v>
@@ -10470,7 +10474,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>192</v>
@@ -10490,7 +10494,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>41852</v>
@@ -10517,7 +10521,7 @@
         <v>41866</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>194</v>
@@ -10537,7 +10541,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="47"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f>EDATE(A300,1)</f>
         <v>41883</v>
@@ -10564,7 +10568,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>195</v>
@@ -10584,7 +10588,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f>EDATE(A302,1)</f>
         <v>41913</v>
@@ -10611,7 +10615,7 @@
         <v>41915</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>59</v>
@@ -10633,7 +10637,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>197</v>
@@ -10653,7 +10657,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f>EDATE(A304,1)</f>
         <v>41944</v>
@@ -10680,7 +10684,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>199</v>
@@ -10700,7 +10704,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f>EDATE(A307,1)</f>
         <v>41974</v>
@@ -10725,7 +10729,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="46" t="s">
         <v>145</v>
       </c>
@@ -10743,7 +10747,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f>EDATE(A309,1)</f>
         <v>42005</v>
@@ -10770,7 +10774,7 @@
         <v>41648</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>59</v>
@@ -10792,7 +10796,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>203</v>
@@ -10812,7 +10816,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f>EDATE(A311,1)</f>
         <v>42036</v>
@@ -10839,7 +10843,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>205</v>
@@ -10859,7 +10863,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="47"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A314,1)</f>
         <v>42064</v>
@@ -10886,7 +10890,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>207</v>
@@ -10906,7 +10910,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>42095</v>
@@ -10933,7 +10937,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>65</v>
@@ -10955,7 +10959,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>122</v>
@@ -10977,7 +10981,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>210</v>
@@ -10997,7 +11001,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A318,1)</f>
         <v>42125</v>
@@ -11024,7 +11028,7 @@
         <v>42132</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>211</v>
@@ -11044,7 +11048,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>42156</v>
@@ -11069,7 +11073,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f t="shared" ref="A325:A405" si="4">EDATE(A324,1)</f>
         <v>42186</v>
@@ -11094,7 +11098,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" si="4"/>
         <v>42217</v>
@@ -11121,7 +11125,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>215</v>
@@ -11141,7 +11145,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="47"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f>EDATE(A326,1)</f>
         <v>42248</v>
@@ -11168,7 +11172,7 @@
         <v>42268</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>216</v>
@@ -11188,7 +11192,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f>EDATE(A328,1)</f>
         <v>42278</v>
@@ -11215,7 +11219,7 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>59</v>
@@ -11237,7 +11241,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>217</v>
@@ -11257,7 +11261,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f>EDATE(A330,1)</f>
         <v>42309</v>
@@ -11284,7 +11288,7 @@
         <v>42326</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>59</v>
@@ -11306,7 +11310,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>59</v>
@@ -11328,7 +11332,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>66</v>
@@ -11350,7 +11354,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>62</v>
@@ -11372,7 +11376,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>219</v>
@@ -11392,7 +11396,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f>EDATE(A333,1)</f>
         <v>42339</v>
@@ -11417,7 +11421,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="46" t="s">
         <v>201</v>
       </c>
@@ -11435,7 +11439,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>42370</v>
@@ -11462,7 +11466,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>59</v>
@@ -11484,7 +11488,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>65</v>
@@ -11506,7 +11510,7 @@
         <v>42394</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>224</v>
@@ -11526,7 +11530,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f>EDATE(A341,1)</f>
         <v>42401</v>
@@ -11553,7 +11557,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>65</v>
@@ -11575,7 +11579,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>228</v>
@@ -11595,7 +11599,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="47"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f>EDATE(A345,1)</f>
         <v>42430</v>
@@ -11622,7 +11626,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>65</v>
@@ -11644,7 +11648,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>230</v>
@@ -11664,7 +11668,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A348,1)</f>
         <v>42461</v>
@@ -11691,7 +11695,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>231</v>
@@ -11711,7 +11715,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <f>EDATE(A351,1)</f>
         <v>42491</v>
@@ -11738,7 +11742,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>232</v>
@@ -11758,7 +11762,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f>EDATE(A353,1)</f>
         <v>42522</v>
@@ -11785,7 +11789,7 @@
         <v>42541</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>233</v>
@@ -11805,7 +11809,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="47"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f>EDATE(A355,1)</f>
         <v>42552</v>
@@ -11832,7 +11836,7 @@
         <v>42571</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>234</v>
@@ -11852,7 +11856,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="47"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f>EDATE(A357,1)</f>
         <v>42583</v>
@@ -11879,7 +11883,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>59</v>
@@ -11901,7 +11905,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>235</v>
@@ -11921,7 +11925,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f>EDATE(A359,1)</f>
         <v>42614</v>
@@ -11946,7 +11950,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f t="shared" si="4"/>
         <v>42644</v>
@@ -11973,7 +11977,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>65</v>
@@ -11995,7 +11999,7 @@
         <v>42660</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>65</v>
@@ -12017,7 +12021,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>214</v>
@@ -12037,7 +12041,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="47"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <f>EDATE(A363,1)</f>
         <v>42675</v>
@@ -12064,7 +12068,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>59</v>
@@ -12086,7 +12090,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>240</v>
@@ -12108,7 +12112,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>241</v>
@@ -12128,7 +12132,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f>EDATE(A367,1)</f>
         <v>42705</v>
@@ -12155,7 +12159,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>244</v>
@@ -12175,7 +12179,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="46" t="s">
         <v>202</v>
       </c>
@@ -12193,7 +12197,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A371,1)</f>
         <v>42736</v>
@@ -12220,7 +12224,7 @@
         <v>42744</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>66</v>
@@ -12242,7 +12246,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>249</v>
@@ -12262,7 +12266,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>42767</v>
@@ -12289,7 +12293,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>65</v>
@@ -12311,7 +12315,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>250</v>
@@ -12331,7 +12335,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f>EDATE(A377,1)</f>
         <v>42795</v>
@@ -12356,7 +12360,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="4"/>
         <v>42826</v>
@@ -12383,7 +12387,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>253</v>
@@ -12403,7 +12407,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f>EDATE(A381,1)</f>
         <v>42856</v>
@@ -12430,7 +12434,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>65</v>
@@ -12452,7 +12456,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>98</v>
@@ -12472,7 +12476,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="47"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f>EDATE(A383,1)</f>
         <v>42887</v>
@@ -12499,7 +12503,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>256</v>
@@ -12519,7 +12523,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f>EDATE(A386,1)</f>
         <v>42917</v>
@@ -12548,7 +12552,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>259</v>
@@ -12568,7 +12572,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f>EDATE(A388,1)</f>
         <v>42948</v>
@@ -12595,7 +12599,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>260</v>
@@ -12615,7 +12619,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>59</v>
@@ -12637,7 +12641,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>263</v>
@@ -12657,7 +12661,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="47"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f>EDATE(A390,1)</f>
         <v>42979</v>
@@ -12682,7 +12686,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f t="shared" si="4"/>
         <v>43009</v>
@@ -12709,7 +12713,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>266</v>
@@ -12729,7 +12733,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>43040</v>
@@ -12756,7 +12760,7 @@
         <v>43052</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f t="shared" si="4"/>
         <v>43070</v>
@@ -12781,7 +12785,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>59</v>
@@ -12803,7 +12807,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>59</v>
@@ -12825,7 +12829,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>47</v>
@@ -12847,7 +12851,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="46" t="s">
         <v>246</v>
       </c>
@@ -12865,7 +12869,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f>EDATE(A398,1)</f>
         <v>43101</v>
@@ -12890,7 +12894,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f t="shared" si="4"/>
         <v>43132</v>
@@ -12917,7 +12921,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f t="shared" si="4"/>
         <v>43160</v>
@@ -12944,7 +12948,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f t="shared" ref="A406:A469" si="5">EDATE(A405,1)</f>
         <v>43191</v>
@@ -12965,7 +12969,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f t="shared" si="5"/>
         <v>43221</v>
@@ -12986,7 +12990,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f t="shared" si="5"/>
         <v>43252</v>
@@ -13013,7 +13017,7 @@
         <v>43276</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f t="shared" si="5"/>
         <v>43282</v>
@@ -13038,7 +13042,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>69</v>
@@ -13058,7 +13062,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A409,1)</f>
         <v>43313</v>
@@ -13085,7 +13089,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>59</v>
@@ -13107,7 +13111,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>43344</v>
@@ -13134,7 +13138,7 @@
         <v>43360</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f t="shared" si="5"/>
         <v>43374</v>
@@ -13161,7 +13165,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>59</v>
@@ -13183,7 +13187,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>43405</v>
@@ -13204,7 +13208,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="5"/>
         <v>43435</v>
@@ -13231,7 +13235,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>65</v>
@@ -13253,7 +13257,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="46" t="s">
         <v>247</v>
       </c>
@@ -13271,7 +13275,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f>EDATE(A417,1)</f>
         <v>43466</v>
@@ -13298,7 +13302,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" si="5"/>
         <v>43497</v>
@@ -13319,7 +13323,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="5"/>
         <v>43525</v>
@@ -13346,7 +13350,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f t="shared" si="5"/>
         <v>43556</v>
@@ -13373,7 +13377,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <f t="shared" si="5"/>
         <v>43586</v>
@@ -13394,7 +13398,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f t="shared" si="5"/>
         <v>43617</v>
@@ -13421,7 +13425,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="5"/>
         <v>43647</v>
@@ -13448,7 +13452,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>69</v>
@@ -13468,7 +13472,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f>EDATE(A426,1)</f>
         <v>43678</v>
@@ -13493,7 +13497,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f t="shared" si="5"/>
         <v>43709</v>
@@ -13520,7 +13524,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>65</v>
@@ -13542,7 +13546,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f>EDATE(A429,1)</f>
         <v>43739</v>
@@ -13563,7 +13567,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f t="shared" si="5"/>
         <v>43770</v>
@@ -13590,7 +13594,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>282</v>
@@ -13612,7 +13616,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f>EDATE(A432,1)</f>
         <v>43800</v>
@@ -13633,7 +13637,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="46" t="s">
         <v>248</v>
       </c>
@@ -13651,7 +13655,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f>EDATE(A434,1)</f>
         <v>43831</v>
@@ -13678,7 +13682,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f t="shared" si="5"/>
         <v>43862</v>
@@ -13699,7 +13703,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <f t="shared" si="5"/>
         <v>43891</v>
@@ -13720,7 +13724,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f t="shared" si="5"/>
         <v>43922</v>
@@ -13741,7 +13745,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="47"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f t="shared" si="5"/>
         <v>43952</v>
@@ -13762,7 +13766,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <f t="shared" si="5"/>
         <v>43983</v>
@@ -13783,7 +13787,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f t="shared" si="5"/>
         <v>44013</v>
@@ -13804,7 +13808,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="47"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f t="shared" si="5"/>
         <v>44044</v>
@@ -13825,7 +13829,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f t="shared" si="5"/>
         <v>44075</v>
@@ -13846,7 +13850,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f t="shared" si="5"/>
         <v>44105</v>
@@ -13867,7 +13871,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f t="shared" si="5"/>
         <v>44136</v>
@@ -13888,7 +13892,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="5"/>
         <v>44166</v>
@@ -13915,7 +13919,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="46" t="s">
         <v>287</v>
       </c>
@@ -13933,7 +13937,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f>EDATE(A447,1)</f>
         <v>44197</v>
@@ -13960,7 +13964,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f t="shared" si="5"/>
         <v>44228</v>
@@ -13981,7 +13985,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f t="shared" si="5"/>
         <v>44256</v>
@@ -14002,7 +14006,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f t="shared" si="5"/>
         <v>44287</v>
@@ -14023,7 +14027,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f t="shared" si="5"/>
         <v>44317</v>
@@ -14044,7 +14048,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f t="shared" si="5"/>
         <v>44348</v>
@@ -14065,7 +14069,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <f t="shared" si="5"/>
         <v>44378</v>
@@ -14086,7 +14090,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <f t="shared" si="5"/>
         <v>44409</v>
@@ -14107,7 +14111,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f t="shared" si="5"/>
         <v>44440</v>
@@ -14128,7 +14132,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" si="5"/>
         <v>44470</v>
@@ -14149,7 +14153,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="5"/>
         <v>44501</v>
@@ -14170,7 +14174,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="5"/>
         <v>44531</v>
@@ -14197,7 +14201,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="46" t="s">
         <v>290</v>
       </c>
@@ -14215,7 +14219,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f>EDATE(A460,1)</f>
         <v>44562</v>
@@ -14236,7 +14240,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f t="shared" si="5"/>
         <v>44593</v>
@@ -14257,7 +14261,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f t="shared" si="5"/>
         <v>44621</v>
@@ -14278,7 +14282,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f t="shared" si="5"/>
         <v>44652</v>
@@ -14305,7 +14309,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f t="shared" si="5"/>
         <v>44682</v>
@@ -14326,7 +14330,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" si="5"/>
         <v>44713</v>
@@ -14353,7 +14357,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f t="shared" si="5"/>
         <v>44743</v>
@@ -14380,7 +14384,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" si="5"/>
         <v>44774</v>
@@ -14407,7 +14411,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="50"/>
       <c r="B470" s="20" t="s">
         <v>59</v>
@@ -14429,7 +14433,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>44805</v>
       </c>
@@ -14449,7 +14453,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>44835</v>
       </c>
@@ -14475,7 +14479,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>44866</v>
       </c>
@@ -14501,7 +14505,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>65</v>
@@ -14523,7 +14527,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>44896</v>
       </c>
@@ -14549,7 +14553,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="46" t="s">
         <v>293</v>
       </c>
@@ -14567,7 +14571,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>44927</v>
       </c>
@@ -14587,7 +14591,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>44958</v>
       </c>
@@ -14607,7 +14611,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>44986</v>
       </c>
@@ -14627,7 +14631,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>45017</v>
       </c>
@@ -14653,27 +14657,39 @@
         <v>295</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>45047</v>
       </c>
-      <c r="B481" s="20"/>
-      <c r="C481" s="13"/>
+      <c r="B481" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C481" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D481" s="39"/>
       <c r="E481" s="9"/>
       <c r="F481" s="20"/>
-      <c r="G481" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H481" s="39"/>
+      <c r="G481" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H481" s="39">
+        <v>1</v>
+      </c>
       <c r="I481" s="9"/>
       <c r="J481" s="11"/>
-      <c r="K481" s="20"/>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A482" s="40"/>
-      <c r="B482" s="20"/>
+      <c r="K481" s="47">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A482" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B482" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C482" s="13"/>
       <c r="D482" s="39"/>
       <c r="E482" s="9"/>
@@ -14682,12 +14698,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H482" s="39"/>
+      <c r="H482" s="39">
+        <v>1</v>
+      </c>
       <c r="I482" s="9"/>
       <c r="J482" s="11"/>
-      <c r="K482" s="20"/>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K482" s="47">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="50"/>
       <c r="B483" s="15"/>
       <c r="C483" s="41"/>
@@ -14718,10 +14738,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14744,7 +14764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14752,21 +14772,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -14779,7 +14799,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14808,7 +14828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1.125</v>
       </c>
@@ -14836,17 +14856,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14867,7 +14887,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14894,7 +14914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14920,7 +14940,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14946,7 +14966,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14972,7 +14992,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14998,7 +15018,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15024,7 +15044,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15050,7 +15070,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15076,7 +15096,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15096,7 +15116,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15116,7 +15136,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15136,7 +15156,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15157,7 +15177,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15178,7 +15198,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15199,7 +15219,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15220,7 +15240,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15241,7 +15261,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15262,7 +15282,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15283,7 +15303,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15304,7 +15324,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15325,7 +15345,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15346,7 +15366,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15367,7 +15387,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15388,7 +15408,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15409,7 +15429,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15430,7 +15450,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15451,7 +15471,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15472,7 +15492,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15493,7 +15513,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15514,7 +15534,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15535,7 +15555,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15556,7 +15576,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15565,7 +15585,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15574,7 +15594,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15583,7 +15603,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15592,7 +15612,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15601,7 +15621,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15610,7 +15630,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15619,7 +15639,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15628,7 +15648,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15637,7 +15657,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15646,7 +15666,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15655,7 +15675,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15664,7 +15684,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15673,7 +15693,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15682,7 +15702,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15691,7 +15711,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15700,7 +15720,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15709,7 +15729,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15718,7 +15738,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15727,7 +15747,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15736,7 +15756,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15745,7 +15765,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15754,7 +15774,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15763,7 +15783,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15772,7 +15792,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15781,7 +15801,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15790,7 +15810,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15799,7 +15819,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15808,7 +15828,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15817,7 +15837,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
